--- a/public/files/OrgImportFormat.xlsx
+++ b/public/files/OrgImportFormat.xlsx
@@ -10,19 +10,16 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhDc0lGEL+Djg+A/l9abPOti8OsRQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mizaT2jQoSex4afRW7tvPOcg4aAKg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>조직 이름</t>
-  </si>
-  <si>
-    <t>조직 회사코드</t>
   </si>
   <si>
     <t>조직 부서코드</t>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>OS연구소</t>
-  </si>
-  <si>
-    <t>TmaxGroup</t>
   </si>
   <si>
     <t>0000</t>
@@ -74,11 +68,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -101,16 +99,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,53 +176,59 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,33 +471,32 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" ht="17.25" customHeight="1"/>
     <row r="9" ht="17.25" customHeight="1"/>
     <row r="10" ht="17.25" customHeight="1"/>
     <row r="11" ht="17.25" customHeight="1"/>
-    <row r="12" ht="17.25" customHeight="1"/>
+    <row r="12" ht="17.25" customHeight="1">
+      <c r="C12" s="4"/>
+    </row>
     <row r="13" ht="17.25" customHeight="1"/>
     <row r="14" ht="17.25" customHeight="1"/>
     <row r="15" ht="17.25" customHeight="1"/>
@@ -1506,115 +1502,100 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12">
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="14"/>
     </row>
     <row r="13">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="14"/>
     </row>
     <row r="14">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
